--- a/For testing.xlsx
+++ b/For testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMEN\PycharmProjects\commextractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9F306-49CB-4C40-9A84-556B7CAC2FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C24E0E-F168-4B40-8FE5-50765022CF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>test 1</t>
   </si>
   <si>
     <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
   </si>
 </sst>
 </file>
@@ -348,28 +354,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1">
         <v>5</v>
       </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
         <v>7</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
